--- a/Documents/PhanCong_BaoCao.xlsx
+++ b/Documents/PhanCong_BaoCao.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Wind</t>
   </si>
@@ -53,52 +53,43 @@
     <t>chungtu3108@yahoo.com.vn</t>
   </si>
   <si>
-    <t>1. Kiến trúc tổng quan</t>
-  </si>
-  <si>
-    <t>2.Nghiệp vụ</t>
-  </si>
-  <si>
-    <t>3. Chức năng hệ thống</t>
-  </si>
-  <si>
-    <t>Đặc tả Usecase bằng văn bản và activity diagram</t>
-  </si>
-  <si>
-    <t>Sơ đồ usecase</t>
-  </si>
-  <si>
-    <t>4. Sơ đồ lớp</t>
-  </si>
-  <si>
-    <t>Mức phân tích</t>
-  </si>
-  <si>
-    <t>Mức thiết kế</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>Đặc tả table</t>
-  </si>
-  <si>
-    <t>Cung cấp script tạo bảng, khoá, các ràng buộc nếu có</t>
-  </si>
-  <si>
-    <t>Nhiệm vụ</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>update</t>
   </si>
   <si>
-    <t>5. Lược đồ DB</t>
-  </si>
-  <si>
-    <t>6. Viết báo cáo</t>
+    <t>Business Usecase (Activity Diagram)</t>
+  </si>
+  <si>
+    <t>System Usecase (Activity Diagram)</t>
+  </si>
+  <si>
+    <t>System Usecase (Model)</t>
+  </si>
+  <si>
+    <t>Business Usecase (Model)</t>
+  </si>
+  <si>
+    <t>2. Business</t>
+  </si>
+  <si>
+    <t>1. Architecture</t>
+  </si>
+  <si>
+    <t>3. System</t>
+  </si>
+  <si>
+    <t>4. Class Diagram</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>5. ER</t>
   </si>
 </sst>
 </file>
@@ -738,18 +729,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H18"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" style="4" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" style="4" customWidth="1"/>
@@ -759,9 +750,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="5">
         <v>1542205</v>
       </c>
@@ -780,19 +769,19 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -802,35 +791,35 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -843,19 +832,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.35">
@@ -863,24 +852,24 @@
         <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -890,97 +879,47 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C12" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
